--- a/input_data/admin_data/CHL/gpinter_CHL_2014.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2014.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,57 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +444,112 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J80"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +837,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>1242820.03249246</v>
+        <v>3285587.20916331</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F2">
-        <v>30865.364615364098</v>
+        <v>8230.8812269083301</v>
       </c>
       <c r="G2">
-        <v>0.99994232796916704</v>
+        <v>0.99999845577731294</v>
       </c>
       <c r="H2">
-        <v>3550709.5901063699</v>
+        <v>6318427.1836249996</v>
       </c>
       <c r="I2">
-        <v>65487.480672473197</v>
+        <v>42337.651805479501</v>
       </c>
       <c r="J2">
-        <v>115.03864070145799</v>
+        <v>767.64893204494899</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +869,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F3">
-        <v>101084.18479587699</v>
+        <v>77096.312974010696</v>
       </c>
       <c r="G3">
-        <v>0.99941540147168295</v>
+        <v>0.99986959707075496</v>
       </c>
       <c r="H3">
-        <v>3653216.12273678</v>
+        <v>6441487.76268028</v>
       </c>
       <c r="I3">
-        <v>138696.945555546</v>
+        <v>113182.071269822</v>
       </c>
       <c r="J3">
-        <v>36.140333229316397</v>
+        <v>83.551177925353301</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +899,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>177351.88521099999</v>
+        <v>149943.060350791</v>
       </c>
       <c r="G4">
-        <v>0.998299415714056</v>
+        <v>0.99952511657438003</v>
       </c>
       <c r="H4">
-        <v>3759716.7038634801</v>
+        <v>6568053.8765084902</v>
       </c>
       <c r="I4">
-        <v>218161.60669238001</v>
+        <v>188077.918516612</v>
       </c>
       <c r="J4">
-        <v>21.1991922126481</v>
+        <v>43.8036536078599</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +929,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F5">
-        <v>260084.63338252899</v>
+        <v>226911.41881335201</v>
       </c>
       <c r="G5">
-        <v>0.99654404002820596</v>
+        <v>0.99895268337890097</v>
       </c>
       <c r="H5">
-        <v>3870390.3006500802</v>
+        <v>6698257.4674879201</v>
       </c>
       <c r="I5">
-        <v>304308.177793968</v>
+        <v>267165.59581923299</v>
       </c>
       <c r="J5">
-        <v>14.881272493163999</v>
+        <v>29.519261315789599</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +959,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F6">
-        <v>349719.61482285598</v>
+        <v>308141.78771436901</v>
       </c>
       <c r="G6">
-        <v>0.99409551031482801</v>
+        <v>0.99813953924723997</v>
       </c>
       <c r="H6">
-        <v>3985425.20783898</v>
+        <v>6832238.5481476802</v>
       </c>
       <c r="I6">
-        <v>397584.09097427502</v>
+        <v>350585.26414722699</v>
       </c>
       <c r="J6">
-        <v>11.396058553529301</v>
+        <v>22.172385637227499</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +989,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F7">
-        <v>446714.35338056501</v>
+        <v>393773.96360024699</v>
       </c>
       <c r="G7">
-        <v>0.99089646233861395</v>
+        <v>0.99707249934895403</v>
       </c>
       <c r="H7">
-        <v>4105019.9117344702</v>
+        <v>6970146.0648285504</v>
       </c>
       <c r="I7">
-        <v>498456.55395697698</v>
+        <v>438476.08593851101</v>
       </c>
       <c r="J7">
-        <v>9.1893620177396205</v>
+        <v>17.700880985377999</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +1019,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F8">
-        <v>551545.48262559599</v>
+        <v>483946.330823483</v>
       </c>
       <c r="G8">
-        <v>0.98688577260940802</v>
+        <v>0.99573795529936804</v>
       </c>
       <c r="H8">
-        <v>4229384.1654509399</v>
+        <v>7112138.8904565899</v>
       </c>
       <c r="I8">
-        <v>607410.98509310605</v>
+        <v>530975.36024915602</v>
       </c>
       <c r="J8">
-        <v>7.6682418743006098</v>
+        <v>14.696131445721599</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1049,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F9">
-        <v>664706.81641559605</v>
+        <v>578794.93956640596</v>
       </c>
       <c r="G9">
-        <v>0.98199841185553405</v>
+        <v>0.99412188083094999</v>
       </c>
       <c r="H9">
-        <v>4358740.35046372</v>
+        <v>7258386.9689056398</v>
       </c>
       <c r="I9">
-        <v>724948.65685809602</v>
+        <v>628217.54025180498</v>
       </c>
       <c r="J9">
-        <v>6.5573877728049297</v>
+        <v>12.5405156001245</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1079,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F10">
-        <v>786706.53051236097</v>
+        <v>678452.46109375998</v>
       </c>
       <c r="G10">
-        <v>0.976165317458076</v>
+        <v>0.99220984045503202</v>
       </c>
       <c r="H10">
-        <v>4493325.2280046698</v>
+        <v>7409072.6377386898</v>
       </c>
       <c r="I10">
-        <v>851583.33812798397</v>
+        <v>730333.12283547001</v>
       </c>
       <c r="J10">
-        <v>5.7115646733964196</v>
+        <v>10.920547956734101</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1109,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F11">
-        <v>918063.22253181797</v>
+        <v>783047.010014812</v>
       </c>
       <c r="G11">
-        <v>0.96931329290211399</v>
+        <v>0.989987001503144</v>
       </c>
       <c r="H11">
-        <v>4633392.2237691497</v>
+        <v>7564392.1613410898</v>
       </c>
       <c r="I11">
-        <v>987836.67613084102</v>
+        <v>837447.40022222302</v>
       </c>
       <c r="J11">
-        <v>5.0469206368939101</v>
+        <v>9.6602018328350496</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1139,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F12">
-        <v>1059300.5628107199</v>
+        <v>892700.82366010896</v>
       </c>
       <c r="G12">
-        <v>0.961364944385799</v>
+        <v>0.98743814996791002</v>
       </c>
       <c r="H12">
-        <v>4779214.4456746904</v>
+        <v>7724557.5127963005</v>
       </c>
       <c r="I12">
-        <v>1134231.9982841101</v>
+        <v>949679.06408535305</v>
       </c>
       <c r="J12">
-        <v>4.51166988243037</v>
+        <v>8.6530193633353001</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1169,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F13">
-        <v>1210940.18185985</v>
+        <v>1007528.78953121</v>
       </c>
       <c r="G13">
-        <v>0.95223866730118001</v>
+        <v>0.98454771059245605</v>
       </c>
       <c r="H13">
-        <v>4931088.7143159602</v>
+        <v>7889798.4505697303</v>
       </c>
       <c r="I13">
-        <v>1291286.14017829</v>
+        <v>1067138.6538420599</v>
       </c>
       <c r="J13">
-        <v>4.0721158552542498</v>
+        <v>7.8308416916212602</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1199,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F14">
-        <v>1373492.3585894001</v>
+        <v>1127636.81339833</v>
       </c>
       <c r="G14">
-        <v>0.94184869846885699</v>
+        <v>0.98129977168258298</v>
       </c>
       <c r="H14">
-        <v>5089341.00014803</v>
+        <v>8060364.9454879304</v>
       </c>
       <c r="I14">
-        <v>1459498.8161478699</v>
+        <v>1189926.84296611</v>
       </c>
       <c r="J14">
-        <v>3.70540175802279</v>
+        <v>7.1480150787172603</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1229,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F15">
-        <v>1547443.97497032</v>
+        <v>1253120.02332686</v>
       </c>
       <c r="G15">
-        <v>0.93010525389932597</v>
+        <v>0.97767811513471403</v>
       </c>
       <c r="H15">
-        <v>5254333.8266935004</v>
+        <v>8236530.0250397697</v>
       </c>
       <c r="I15">
-        <v>1639338.9408843501</v>
+        <v>1318132.56054912</v>
       </c>
       <c r="J15">
-        <v>3.3954921222878398</v>
+        <v>6.5728181432876003</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1259,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="F16">
-        <v>1733243.0850226199</v>
+        <v>1384060.8091734501</v>
       </c>
       <c r="G16">
-        <v>0.916914776613594</v>
+        <v>0.97366625218104497</v>
       </c>
       <c r="H16">
-        <v>5426476.4403034598</v>
+        <v>8418593.1162105706</v>
       </c>
       <c r="I16">
-        <v>1831227.18259469</v>
+        <v>1451830.95070105</v>
       </c>
       <c r="J16">
-        <v>3.1308224952373802</v>
+        <v>6.0825312445903696</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1289,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="F17">
-        <v>1931279.30786594</v>
+        <v>1520526.7035515299</v>
       </c>
       <c r="G17">
-        <v>0.90218032484488397</v>
+        <v>0.96924746534546202</v>
       </c>
       <c r="H17">
-        <v>5606238.9031889001</v>
+        <v>8606883.9855486695</v>
       </c>
       <c r="I17">
-        <v>2035513.88037069</v>
+        <v>1591081.18022618</v>
       </c>
       <c r="J17">
-        <v>2.90286282276994</v>
+        <v>5.6604622368323803</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1319,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F18">
-        <v>2141859.0977202202</v>
+        <v>1662568.1198517999</v>
       </c>
       <c r="G18">
-        <v>0.88580213792196705</v>
+        <v>0.96440485707200396</v>
       </c>
       <c r="H18">
-        <v>5794171.7991266996</v>
+        <v>8801767.3968076296</v>
       </c>
       <c r="I18">
-        <v>2252451.29523612</v>
+        <v>1735924.11678355</v>
       </c>
       <c r="J18">
-        <v>2.7052068015557</v>
+        <v>5.2940792570906501</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1349,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F19">
-        <v>2365174.7763806698</v>
+        <v>1810215.9769245901</v>
       </c>
       <c r="G19">
-        <v>0.867678425426612</v>
+        <v>0.95912140542006796</v>
       </c>
       <c r="H19">
-        <v>5990934.04934284</v>
+        <v>9003648.6333797406</v>
       </c>
       <c r="I19">
-        <v>2482159.00006792</v>
+        <v>1886379.91665061</v>
       </c>
       <c r="J19">
-        <v>2.53297731278469</v>
+        <v>4.9737980153485299</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1379,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F20">
-        <v>2601266.0581302601</v>
+        <v>1963479.2603802099</v>
       </c>
       <c r="G20">
-        <v>0.84770643483124097</v>
+        <v>0.95338002710148395</v>
       </c>
       <c r="H20">
-        <v>6197332.5816531302</v>
+        <v>9212980.0662247203</v>
       </c>
       <c r="I20">
-        <v>2724581.0839438899</v>
+        <v>2042445.58586812</v>
       </c>
       <c r="J20">
-        <v>2.3824293413906501</v>
+        <v>4.6921708072642003</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1409,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F21">
-        <v>2849972.7060022601</v>
+        <v>2122342.5998580102</v>
       </c>
       <c r="G21">
-        <v>0.82578386347970101</v>
+        <v>0.94716364794048702</v>
       </c>
       <c r="H21">
-        <v>6414379.5502599496</v>
+        <v>9430268.9898718894</v>
       </c>
       <c r="I21">
-        <v>2979433.8326495299</v>
+        <v>2204092.6140081501</v>
       </c>
       <c r="J21">
-        <v>2.2506810457344999</v>
+        <v>4.4433302099777796</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1439,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F22">
-        <v>3110877.0500667598</v>
+        <v>2286763.9840308698</v>
       </c>
       <c r="G22">
-        <v>0.80181069154205298</v>
+        <v>0.94045528053553396</v>
       </c>
       <c r="H22">
-        <v>6643375.9314339804</v>
+        <v>9656087.0016176291</v>
       </c>
       <c r="I22">
-        <v>3246142.8300459399</v>
+        <v>2371264.8311275602</v>
       </c>
       <c r="J22">
-        <v>2.1355314994822501</v>
+        <v>4.2225988641805001</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1469,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F23">
-        <v>3383235.6353935902</v>
+        <v>2456672.7963642799</v>
       </c>
       <c r="G23">
-        <v>0.77569152106540795</v>
+        <v>0.93323810844369504</v>
       </c>
       <c r="H23">
-        <v>6886035.4386759801</v>
+        <v>9891081.2651818302</v>
       </c>
       <c r="I23">
-        <v>3523769.4075521701</v>
+        <v>2543876.7124788999</v>
       </c>
       <c r="J23">
-        <v>2.0353401834143598</v>
+        <v>4.02621027913038</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1499,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F24">
-        <v>3665900.8374334299</v>
+        <v>2631968.4433689001</v>
       </c>
       <c r="G24">
-        <v>0.74733850682822001</v>
+        <v>0.92549557552481798</v>
       </c>
       <c r="H24">
-        <v>7144671.2872239696</v>
+        <v>10135988.083605301</v>
       </c>
       <c r="I24">
-        <v>3810928.96581324</v>
+        <v>2721812.4632460801</v>
       </c>
       <c r="J24">
-        <v>1.94895377809131</v>
+        <v>3.8511054755015501</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1529,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F25">
-        <v>3957237.2362742801</v>
+        <v>2812519.9761592899</v>
       </c>
       <c r="G25">
-        <v>0.71667494439617196</v>
+        <v>0.91721147807138503</v>
       </c>
       <c r="H25">
-        <v>7422483.1473415298</v>
+        <v>10391649.3118935</v>
       </c>
       <c r="I25">
-        <v>4105710.0474136602</v>
+        <v>2904926.3725276599</v>
       </c>
       <c r="J25">
-        <v>1.8756730274603799</v>
+        <v>3.6947824015401598</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1559,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F26">
-        <v>4255047.0980920801</v>
+        <v>2998167.2950306102</v>
       </c>
       <c r="G26">
-        <v>0.683639509336603</v>
+        <v>0.90837005586099295</v>
       </c>
       <c r="H26">
-        <v>7724007.9746076996</v>
+        <v>10659032.2740137</v>
       </c>
       <c r="I26">
-        <v>4405618.4010853805</v>
+        <v>3093045.1564137298</v>
       </c>
       <c r="J26">
-        <v>1.81525792700886</v>
+        <v>3.55518262495919</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1589,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F27">
-        <v>4556542.5247759204</v>
+        <v>3188724.80519159</v>
       </c>
       <c r="G27">
-        <v>0.64819094650446096</v>
+        <v>0.89895607607744799</v>
       </c>
       <c r="H27">
-        <v>8055846.9319599299</v>
+        <v>10939254.01911</v>
       </c>
       <c r="I27">
-        <v>4707608.21780256</v>
+        <v>3285973.3514494398</v>
       </c>
       <c r="J27">
-        <v>1.76797360897144</v>
+        <v>3.43060461075215</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1619,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F28">
-        <v>4858460.0690636002</v>
+        <v>3383988.8056067298</v>
       </c>
       <c r="G28">
-        <v>0.61031250799585801</v>
+        <v>0.88895490081634099</v>
       </c>
       <c r="H28">
-        <v>8427873.4557552002</v>
+        <v>11233610.967866199</v>
       </c>
       <c r="I28">
-        <v>5008360.7392792096</v>
+        <v>3483503.3296320899</v>
       </c>
       <c r="J28">
-        <v>1.7346799882991599</v>
+        <v>3.3196359719789501</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1649,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="F29">
-        <v>5157567.7664014902</v>
+        <v>3583750.5137070799</v>
       </c>
       <c r="G29">
-        <v>0.57001414935711703</v>
+        <v>0.87835252410901499</v>
       </c>
       <c r="H29">
-        <v>8855312.5453146994</v>
+        <v>11543615.273395499</v>
       </c>
       <c r="I29">
-        <v>5305240.8084522001</v>
+        <v>3685432.2753534601</v>
       </c>
       <c r="J29">
-        <v>1.7169551514188199</v>
+        <v>3.2210990216098199</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1679,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F30">
-        <v>5452253.6884986199</v>
+        <v>3787817.56982071</v>
       </c>
       <c r="G30">
-        <v>0.52732702918081498</v>
+        <v>0.867135557275583</v>
       </c>
       <c r="H30">
-        <v>9362465.6505807694</v>
+        <v>11871039.5649806</v>
       </c>
       <c r="I30">
-        <v>5599174.9237965196</v>
+        <v>3891589.6376449498</v>
       </c>
       <c r="J30">
-        <v>1.7171735186003301</v>
+        <v>3.1340050955892602</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1709,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F31">
-        <v>5747260.62673664</v>
+        <v>3996048.3081143498</v>
       </c>
       <c r="G31">
-        <v>0.48227485125150099</v>
+        <v>0.855291130724397</v>
       </c>
       <c r="H31">
-        <v>9989680.7717114799</v>
+        <v>12217972.170516999</v>
       </c>
       <c r="I31">
-        <v>5903424.6089640995</v>
+        <v>4101880.3815334099</v>
       </c>
       <c r="J31">
-        <v>1.7381638697989099</v>
+        <v>3.0575136305803001</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1739,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F32">
-        <v>6068491.2122554602</v>
+        <v>4208405.3207890196</v>
       </c>
       <c r="G32">
-        <v>0.43477461425318997</v>
+        <v>0.84280666411187399</v>
       </c>
       <c r="H32">
-        <v>10806932.004261</v>
+        <v>12586885.4336526</v>
       </c>
       <c r="I32">
-        <v>6272785.7404315099</v>
+        <v>4316352.1926852604</v>
       </c>
       <c r="J32">
-        <v>1.78082683590875</v>
+        <v>2.9908919113553201</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1769,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F33">
-        <v>6514818.4465717198</v>
+        <v>4425038.3661757195</v>
       </c>
       <c r="G33">
-        <v>0.38430241734265702</v>
+        <v>0.82966943195852405</v>
       </c>
       <c r="H33">
-        <v>11940468.5702183</v>
+        <v>12980720.3498891</v>
       </c>
       <c r="I33">
-        <v>6915436.8341221996</v>
+        <v>4535299.2762507703</v>
       </c>
       <c r="J33">
-        <v>1.8328167804126201</v>
+        <v>2.9334706901326899</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1799,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F34">
-        <v>7460759.9191769799</v>
+        <v>4646412.2950855196</v>
       </c>
       <c r="G34">
-        <v>0.328659310108109</v>
+        <v>0.81586581334325203</v>
       </c>
       <c r="H34">
-        <v>13615479.148917001</v>
+        <v>13402991.403571</v>
       </c>
       <c r="I34">
-        <v>8389732.3666537292</v>
+        <v>4759422.6098956196</v>
       </c>
       <c r="J34">
-        <v>1.8249453536120399</v>
+        <v>2.8845893460094598</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1829,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F35">
-        <v>9528068.2546255998</v>
+        <v>4873504.7825881699</v>
       </c>
       <c r="G35">
-        <v>0.261153700709231</v>
+        <v>0.80138005385215705</v>
       </c>
       <c r="H35">
-        <v>16228352.540048599</v>
+        <v>13857916.0769224</v>
       </c>
       <c r="I35">
-        <v>11002718.7406401</v>
+        <v>4990078.3109202003</v>
       </c>
       <c r="J35">
-        <v>1.7032153954365601</v>
+        <v>2.8435215917779102</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1859,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F36">
-        <v>12551350.685531</v>
+        <v>5108113.6602366399</v>
       </c>
       <c r="G36">
-        <v>0.17262343524051099</v>
+        <v>0.78619227159818705</v>
       </c>
       <c r="H36">
-        <v>21453986.339457199</v>
+        <v>14350573.7305892</v>
       </c>
       <c r="I36">
-        <v>12715755.9504756</v>
+        <v>5229665.3899320802</v>
       </c>
       <c r="J36">
-        <v>1.70929702125118</v>
+        <v>2.80936852331598</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1889,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F37">
-        <v>12884496.5315187</v>
+        <v>5353338.7855229499</v>
       </c>
       <c r="G37">
-        <v>0.162392061736678</v>
+        <v>0.77027528307526205</v>
       </c>
       <c r="H37">
-        <v>22424900.827121802</v>
+        <v>14887097.750627801</v>
       </c>
       <c r="I37">
-        <v>13068026.7100181</v>
+        <v>5482237.3369397502</v>
       </c>
       <c r="J37">
-        <v>1.74045611889179</v>
+        <v>2.7808996118248701</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1919,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F38">
-        <v>13263280.179133501</v>
+        <v>5614346.26012713</v>
       </c>
       <c r="G38">
-        <v>0.15187724352618501</v>
+        <v>0.75358956759143603</v>
       </c>
       <c r="H38">
-        <v>23594510.091759801</v>
+        <v>15474901.526483299</v>
       </c>
       <c r="I38">
-        <v>13496560.6042876</v>
+        <v>5754479.1214487897</v>
       </c>
       <c r="J38">
-        <v>1.7789347561909901</v>
+        <v>2.75631405857267</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1949,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F39">
-        <v>13759170.3242869</v>
+        <v>5899597.2703505903</v>
       </c>
       <c r="G39">
-        <v>0.14101761763391399</v>
+        <v>0.73607525810849295</v>
       </c>
       <c r="H39">
-        <v>25037074.304255798</v>
+        <v>16122929.686819</v>
       </c>
       <c r="I39">
-        <v>14115661.787290299</v>
+        <v>6057291.4118190696</v>
       </c>
       <c r="J39">
-        <v>1.81966453748028</v>
+        <v>2.73288649173519</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1979,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F40">
-        <v>14544402.311764499</v>
+        <v>6222855.5152635099</v>
       </c>
       <c r="G40">
-        <v>0.129659849479034</v>
+        <v>0.71763931035788797</v>
       </c>
       <c r="H40">
-        <v>26857309.723749999</v>
+        <v>16841903.849319</v>
       </c>
       <c r="I40">
-        <v>15206629.802465299</v>
+        <v>6408402.7693074299</v>
       </c>
       <c r="J40">
-        <v>1.8465736266127599</v>
+        <v>2.7064590858664301</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +2009,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.87</v>
       </c>
       <c r="F41">
-        <v>16047414.1191654</v>
+        <v>6606524.1135237198</v>
       </c>
       <c r="G41">
-        <v>0.117424264756467</v>
+        <v>0.69813472149342304</v>
       </c>
       <c r="H41">
-        <v>29187445.708007</v>
+        <v>17644480.855473701</v>
       </c>
       <c r="I41">
-        <v>17282784.157280602</v>
+        <v>6836752.9987914404</v>
       </c>
       <c r="J41">
-        <v>1.81882548124364</v>
+        <v>2.6707661324288501</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +2039,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.88</v>
       </c>
       <c r="F42">
-        <v>18675767.820195202</v>
+        <v>7087243.7011061301</v>
       </c>
       <c r="G42">
-        <v>0.10351816113290301</v>
+        <v>0.67732640759530405</v>
       </c>
       <c r="H42">
-        <v>32163611.0956886</v>
+        <v>18545124.843530498</v>
       </c>
       <c r="I42">
-        <v>20190219.760425601</v>
+        <v>7384207.0013202503</v>
       </c>
       <c r="J42">
-        <v>1.7222109101671399</v>
+        <v>2.6166907228879599</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2069,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F43">
-        <v>21629055.531169701</v>
+        <v>7705247.7765630297</v>
       </c>
       <c r="G43">
-        <v>0.087272671655287903</v>
+        <v>0.654851864899477</v>
       </c>
       <c r="H43">
-        <v>36154741.540776297</v>
+        <v>19559753.738276899</v>
       </c>
       <c r="I43">
-        <v>22615795.1155155</v>
+        <v>8074338.9743423704</v>
       </c>
       <c r="J43">
-        <v>1.6715820757255699</v>
+        <v>2.5384976973448699</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2099,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F44">
-        <v>23371867.043193702</v>
+        <v>8467150.4515719395</v>
       </c>
       <c r="G44">
-        <v>0.069075511548237101</v>
+        <v>0.63027683930945999</v>
       </c>
       <c r="H44">
-        <v>42924214.753406703</v>
+        <v>20708295.214670401</v>
       </c>
       <c r="I44">
-        <v>27075403.357285801</v>
+        <v>8905897.8263859898</v>
       </c>
       <c r="J44">
-        <v>1.8365761996710901</v>
+        <v>2.44572189110279</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2129,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F45">
-        <v>34080990.273429498</v>
+        <v>9366526.0008894298</v>
       </c>
       <c r="G45">
-        <v>0.047290053759158603</v>
+        <v>0.60317088454573298</v>
       </c>
       <c r="H45">
-        <v>58773026.149527699</v>
+        <v>22019672.702257499</v>
       </c>
       <c r="I45">
-        <v>34464682.010999702</v>
+        <v>9867723.9156107903</v>
       </c>
       <c r="J45">
-        <v>1.7245105168011701</v>
+        <v>2.350890041854</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2159,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F46">
-        <v>34740257.236543298</v>
+        <v>10387317.579382099</v>
       </c>
       <c r="G46">
-        <v>0.0445169505656191</v>
+        <v>0.57313751976974903</v>
       </c>
       <c r="H46">
-        <v>61473953.276030399</v>
+        <v>23538666.300588399</v>
       </c>
       <c r="I46">
-        <v>34874614.914356202</v>
+        <v>10939595.718972299</v>
       </c>
       <c r="J46">
-        <v>1.7695307451945399</v>
+        <v>2.2660967204190001</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2189,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F47">
-        <v>35014332.525036998</v>
+        <v>11506432.713816799</v>
       </c>
       <c r="G47">
-        <v>0.041710863280043899</v>
+        <v>0.53984181028907396</v>
       </c>
       <c r="H47">
-        <v>64798870.571239099</v>
+        <v>25338533.5265336</v>
       </c>
       <c r="I47">
-        <v>35515417.781515598</v>
+        <v>12102332.772547301</v>
       </c>
       <c r="J47">
-        <v>1.8506384642604501</v>
+        <v>2.20211895004672</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2219,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F48">
-        <v>36481532.930569001</v>
+        <v>12715555.707962999</v>
       </c>
       <c r="G48">
-        <v>0.038853215603550803</v>
+        <v>0.50300719899403801</v>
       </c>
       <c r="H48">
-        <v>68982220.969770402</v>
+        <v>27544566.9855313</v>
       </c>
       <c r="I48">
-        <v>38724975.988745302</v>
+        <v>13388595.1348482</v>
       </c>
       <c r="J48">
-        <v>1.89088054772962</v>
+        <v>2.1662102402871599</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2249,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F49">
-        <v>41337138.120111197</v>
+        <v>14117472.165004</v>
       </c>
       <c r="G49">
-        <v>0.035737319900527899</v>
+        <v>0.46225772475239202</v>
       </c>
       <c r="H49">
-        <v>74025095.133273795</v>
+        <v>30375761.3556679</v>
       </c>
       <c r="I49">
-        <v>43719850.5537071</v>
+        <v>15097175.8813993</v>
       </c>
       <c r="J49">
-        <v>1.79076487874373</v>
+        <v>2.1516430845861199</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2279,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F50">
-        <v>45579671.358342499</v>
+        <v>16322700.605041601</v>
       </c>
       <c r="G50">
-        <v>0.032219525738003602</v>
+        <v>0.41630802103034797</v>
       </c>
       <c r="H50">
-        <v>80086144.049185798</v>
+        <v>34195407.724234998</v>
       </c>
       <c r="I50">
-        <v>46687848.116710998</v>
+        <v>18213139.3777139</v>
       </c>
       <c r="J50">
-        <v>1.7570583916579201</v>
+        <v>2.0949601755038598</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2309,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F51">
-        <v>48369740.075321101</v>
+        <v>20447484.562917098</v>
       </c>
       <c r="G51">
-        <v>0.0284629200432053</v>
+        <v>0.36087458335771999</v>
       </c>
       <c r="H51">
-        <v>88435718.032302096</v>
+        <v>39522830.506408699</v>
       </c>
       <c r="I51">
-        <v>53622583.6160473</v>
+        <v>23307693.288767401</v>
       </c>
       <c r="J51">
-        <v>1.82832733635927</v>
+        <v>1.93289450273438</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2339,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F52">
-        <v>60395853.098652497</v>
+        <v>26476678.724698398</v>
       </c>
       <c r="G52">
-        <v>0.024148330463524801</v>
+        <v>0.28993538191523899</v>
       </c>
       <c r="H52">
-        <v>100040096.171066</v>
+        <v>47630399.115229398</v>
       </c>
       <c r="I52">
-        <v>65001961.2445172</v>
+        <v>32020890.358801</v>
       </c>
       <c r="J52">
-        <v>1.6564067073886299</v>
+        <v>1.7989567200057499</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2369,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F53">
-        <v>77443428.248907</v>
+        <v>38081055.921787903</v>
       </c>
       <c r="G53">
-        <v>0.018918131436707598</v>
+        <v>0.19247672895513299</v>
       </c>
       <c r="H53">
-        <v>117559163.634341</v>
+        <v>63239907.871657804</v>
       </c>
       <c r="I53">
-        <v>91236861.4986756</v>
+        <v>39055087.241354302</v>
       </c>
       <c r="J53">
-        <v>1.51800051072765</v>
+        <v>1.6606658177111</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2399,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F54">
-        <v>107956561.283301</v>
+        <v>40288558.520700097</v>
       </c>
       <c r="G54">
-        <v>0.011577015336761001</v>
+        <v>0.18058993832835199</v>
       </c>
       <c r="H54">
-        <v>143881465.770006</v>
+        <v>65927110.163913801</v>
       </c>
       <c r="I54">
-        <v>110099048.28654499</v>
+        <v>42036910.666096598</v>
       </c>
       <c r="J54">
-        <v>1.3327718487849101</v>
+        <v>1.63637301965124</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2429,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F55">
-        <v>112305777.061132</v>
+        <v>43967786.129562497</v>
       </c>
       <c r="G55">
-        <v>0.010691134473823499</v>
+        <v>0.167795601124683</v>
       </c>
       <c r="H55">
-        <v>147635067.712594</v>
+        <v>68913385.101140901</v>
       </c>
       <c r="I55">
-        <v>114654693.410806</v>
+        <v>45726586.637735203</v>
       </c>
       <c r="J55">
-        <v>1.31458124039542</v>
+        <v>1.56736081498554</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2459,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F56">
-        <v>117082481.09319501</v>
+        <v>46968383.100317597</v>
       </c>
       <c r="G56">
-        <v>0.0097685979004441606</v>
+        <v>0.15387827562797901</v>
       </c>
       <c r="H56">
-        <v>151757614.500296</v>
+        <v>72225784.8816275</v>
       </c>
       <c r="I56">
-        <v>119687045.773385</v>
+        <v>47725317.904741302</v>
       </c>
       <c r="J56">
-        <v>1.29615987877383</v>
+        <v>1.5377532738856201</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2489,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F57">
-        <v>122390975.465321</v>
+        <v>48482252.709164701</v>
       </c>
       <c r="G57">
-        <v>0.0088055699266019697</v>
+        <v>0.139352617087661</v>
       </c>
       <c r="H57">
-        <v>156339124.31845501</v>
+        <v>76309196.044441804</v>
       </c>
       <c r="I57">
-        <v>125321243.01267</v>
+        <v>49239187.513587698</v>
       </c>
       <c r="J57">
-        <v>1.27737460808745</v>
+        <v>1.5739614349647799</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2519,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.995</v>
       </c>
       <c r="F58">
-        <v>128380931.283434</v>
+        <v>49996122.318011701</v>
       </c>
       <c r="G58">
-        <v>0.0077972079776819601</v>
+        <v>0.124366197802773</v>
       </c>
       <c r="H58">
-        <v>161508771.20272499</v>
+        <v>81723197.750612706</v>
       </c>
       <c r="I58">
-        <v>131741835.42547999</v>
+        <v>52743792.029293701</v>
       </c>
       <c r="J58">
-        <v>1.2580433058719001</v>
+        <v>1.63459072347239</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2549,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="F59">
-        <v>135278989.666881</v>
+        <v>58256702.2675156</v>
       </c>
       <c r="G59">
-        <v>0.0067371845472409802</v>
+        <v>0.10831311849865501</v>
       </c>
       <c r="H59">
-        <v>167462158.35821301</v>
+        <v>88968049.180942401</v>
       </c>
       <c r="I59">
-        <v>139238904.67411301</v>
+        <v>61808132.494078301</v>
       </c>
       <c r="J59">
-        <v>1.2379021958293901</v>
+        <v>1.5271727667041599</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2579,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.997</v>
       </c>
       <c r="F60">
-        <v>143454405.047988</v>
+        <v>62795357.334443301</v>
       </c>
       <c r="G60">
-        <v>0.0056168380688032303</v>
+        <v>0.089501220180540103</v>
       </c>
       <c r="H60">
-        <v>174517971.779199</v>
+        <v>98021354.743230402</v>
       </c>
       <c r="I60">
-        <v>148311378.42223099</v>
+        <v>66037239.162954397</v>
       </c>
       <c r="J60">
-        <v>1.21653965049605</v>
+        <v>1.56096499652317</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2609,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.998</v>
       </c>
       <c r="F61">
-        <v>153576072.27623001</v>
+        <v>79433612.143035099</v>
       </c>
       <c r="G61">
-        <v>0.0044234924954773304</v>
+        <v>0.069402152659586602</v>
       </c>
       <c r="H61">
-        <v>183253502.898121</v>
+        <v>114013412.53336801</v>
       </c>
       <c r="I61">
-        <v>159945031.926588</v>
+        <v>88111098.524516597</v>
       </c>
       <c r="J61">
-        <v>1.19324254216185</v>
+        <v>1.43532957217237</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2639,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.999</v>
       </c>
       <c r="F62">
-        <v>167079577.87666401</v>
+        <v>99611135.263952494</v>
       </c>
       <c r="G62">
-        <v>0.0031365400184813598</v>
+        <v>0.042584694191651298</v>
       </c>
       <c r="H62">
-        <v>194907738.38395101</v>
+        <v>139915726.54222</v>
       </c>
       <c r="I62">
-        <v>176641655.07501099</v>
+        <v>101248656.19716001</v>
       </c>
       <c r="J62">
-        <v>1.16655632520109</v>
+        <v>1.40461933469052</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2669,539 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F63">
+        <v>102957922.074149</v>
+      </c>
+      <c r="G63">
+        <v>0.039503094168532898</v>
+      </c>
+      <c r="H63">
+        <v>144212067.69167101</v>
+      </c>
+      <c r="I63">
+        <v>104829382.993615</v>
+      </c>
+      <c r="J63">
+        <v>1.4006893766544</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F64">
+        <v>106792738.872694</v>
+      </c>
+      <c r="G64">
+        <v>0.036312511288819897</v>
+      </c>
+      <c r="H64">
+        <v>149134903.278927</v>
+      </c>
+      <c r="I64">
+        <v>108967036.47460701</v>
+      </c>
+      <c r="J64">
+        <v>1.39648917008027</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F65">
+        <v>111262764.55062599</v>
+      </c>
+      <c r="G65">
+        <v>0.0329959949543671</v>
+      </c>
+      <c r="H65">
+        <v>154873169.965258</v>
+      </c>
+      <c r="I65">
+        <v>113842752.71724699</v>
+      </c>
+      <c r="J65">
+        <v>1.39195867180515</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F66">
+        <v>116589780.201297</v>
+      </c>
+      <c r="G66">
+        <v>0.0295310815166798</v>
+      </c>
+      <c r="H66">
+        <v>161711572.83992499</v>
+      </c>
+      <c r="I66">
+        <v>119738200.857108</v>
+      </c>
+      <c r="J66">
+        <v>1.38701327475465</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F67">
+        <v>123129108.56675901</v>
+      </c>
+      <c r="G67">
+        <v>0.0258867344567951</v>
+      </c>
+      <c r="H67">
+        <v>170106247.236487</v>
+      </c>
+      <c r="I67">
+        <v>127124489.551266</v>
+      </c>
+      <c r="J67">
+        <v>1.3815274813287399</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F68">
+        <v>131499648.445691</v>
+      </c>
+      <c r="G68">
+        <v>0.022017578611632501</v>
+      </c>
+      <c r="H68">
+        <v>180851686.65778801</v>
+      </c>
+      <c r="I68">
+        <v>136875360.54462099</v>
+      </c>
+      <c r="J68">
+        <v>1.3753016741522299</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F69">
+        <v>142918619.69563699</v>
+      </c>
+      <c r="G69">
+        <v>0.017851645649542301</v>
+      </c>
+      <c r="H69">
+        <v>195510462.02886099</v>
+      </c>
+      <c r="I69">
+        <v>150892826.54566601</v>
+      </c>
+      <c r="J69">
+        <v>1.3679845386502101</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F70">
+        <v>160296861.87228501</v>
+      </c>
+      <c r="G70">
+        <v>0.0132590776566787</v>
+      </c>
+      <c r="H70">
+        <v>217819279.770457</v>
+      </c>
+      <c r="I70">
+        <v>174731589.43887001</v>
+      </c>
+      <c r="J70">
+        <v>1.3588493076302599</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F71">
+        <v>193861541.36754</v>
+      </c>
+      <c r="G71">
+        <v>0.0079409540362941795</v>
+      </c>
+      <c r="H71">
+        <v>260906970.10204801</v>
+      </c>
+      <c r="I71">
+        <v>196585506.29424599</v>
+      </c>
+      <c r="J71">
+        <v>1.34584182226941</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F72">
+        <v>199428816.69412401</v>
+      </c>
+      <c r="G72">
+        <v>0.0073426271809146904</v>
+      </c>
+      <c r="H72">
+        <v>268053799.41398799</v>
+      </c>
+      <c r="I72">
+        <v>202541933.48122999</v>
+      </c>
+      <c r="J72">
+        <v>1.3441076563429499</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F73">
+        <v>205807914.66339299</v>
+      </c>
+      <c r="G73">
+        <v>0.0067261713677333902</v>
+      </c>
+      <c r="H73">
+        <v>276242782.65553999</v>
+      </c>
+      <c r="I73">
+        <v>209424790.81307</v>
+      </c>
+      <c r="J73">
+        <v>1.3422359538861599</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F74">
+        <v>213243662.76374799</v>
+      </c>
+      <c r="G74">
+        <v>0.0060887669176844499</v>
+      </c>
+      <c r="H74">
+        <v>285788210.061665</v>
+      </c>
+      <c r="I74">
+        <v>217535392.496611</v>
+      </c>
+      <c r="J74">
+        <v>1.3401955601292099</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F75">
+        <v>222104986.916796</v>
+      </c>
+      <c r="G75">
+        <v>0.005426677073017</v>
+      </c>
+      <c r="H75">
+        <v>297163679.65577698</v>
+      </c>
+      <c r="I75">
+        <v>227342286.34130901</v>
+      </c>
+      <c r="J75">
+        <v>1.33794240183855</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F76">
+        <v>232982955.40613899</v>
+      </c>
+      <c r="G76">
+        <v>0.0047347390057249604</v>
+      </c>
+      <c r="H76">
+        <v>311127958.31876498</v>
+      </c>
+      <c r="I76">
+        <v>239629146.88377601</v>
+      </c>
+      <c r="J76">
+        <v>1.33541081482292</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F77">
+        <v>246907087.05270499</v>
+      </c>
+      <c r="G77">
+        <v>0.0040054046991682196</v>
+      </c>
+      <c r="H77">
+        <v>329002661.177414</v>
+      </c>
+      <c r="I77">
+        <v>255849416.22644401</v>
+      </c>
+      <c r="J77">
+        <v>1.33249581899278</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F78">
+        <v>265902189.071428</v>
+      </c>
+      <c r="G78">
+        <v>0.00322670244615321</v>
+      </c>
+      <c r="H78">
+        <v>353387076.160891</v>
+      </c>
+      <c r="I78">
+        <v>279167033.10343301</v>
+      </c>
+      <c r="J78">
+        <v>1.32901153388385</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F79">
+        <v>294810352.14758903</v>
+      </c>
+      <c r="G79">
+        <v>0.0023770307882934501</v>
+      </c>
+      <c r="H79">
+        <v>390497097.68982601</v>
+      </c>
+      <c r="I79">
+        <v>318822070.60610098</v>
+      </c>
+      <c r="J79">
+        <v>1.3245705072606599</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>188244085.71224499</v>
-      </c>
-      <c r="G63">
-        <v>0.00171524288409294</v>
-      </c>
-      <c r="H63">
-        <v>213173821.692689</v>
-      </c>
-      <c r="I63">
-        <v>213173821.692693</v>
-      </c>
-      <c r="J63">
-        <v>1.13243303706525</v>
+      <c r="F80">
+        <v>350644148.142169</v>
+      </c>
+      <c r="G80">
+        <v>0.00140666521797624</v>
+      </c>
+      <c r="H80">
+        <v>462172124.77273601</v>
+      </c>
+      <c r="I80">
+        <v>462172124.77275002</v>
+      </c>
+      <c r="J80">
+        <v>1.31806598576214</v>
       </c>
     </row>
   </sheetData>
